--- a/q2_show.xlsx
+++ b/q2_show.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\Project_github\MTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337C02C2-8A23-49A4-BB44-35EFE4CE55EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978E363-1B23-4BD4-BC54-739EA5B3A677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4365" windowWidth="14595" windowHeight="11835" xr2:uid="{2DAA1A07-E9B7-4D06-99E6-7181B1962FED}"/>
+    <workbookView xWindow="2850" yWindow="3165" windowWidth="14595" windowHeight="11835" xr2:uid="{F98D8089-E6B4-47A3-AD65-D8FF04A317F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,318 +388,1518 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B01F446-247D-4A84-94C0-C489DB993DBD}">
-  <dimension ref="A1:CW1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3DB2C3-4B3B-4114-A65E-E3922F5CD620}">
+  <dimension ref="A1:SG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CW1"/>
+      <selection sqref="A1:SG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:501" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C1">
+        <v>1E-4</v>
+      </c>
+      <c r="D1">
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="E1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G1">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H1">
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="I1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J1">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="K1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C1">
+      <c r="L1">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="M1">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="N1">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="O1">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="P1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="Q1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R1">
+        <v>8.5000000000000006E-4</v>
+      </c>
+      <c r="S1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="T1">
+        <v>9.5000000000000011E-4</v>
+      </c>
+      <c r="U1">
         <v>1E-3</v>
       </c>
-      <c r="D1">
-        <v>1.5000000000000002E-3</v>
-      </c>
-      <c r="E1">
+      <c r="V1">
+        <v>1.0500000000000002E-3</v>
+      </c>
+      <c r="W1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="X1">
+        <v>1.1500000000000002E-3</v>
+      </c>
+      <c r="Y1">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="Z1">
+        <v>1.25E-3</v>
+      </c>
+      <c r="AA1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AB1">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="AC1">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="AD1">
+        <v>1.4500000000000001E-3</v>
+      </c>
+      <c r="AE1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AF1">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="AG1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AH1">
+        <v>1.6500000000000002E-3</v>
+      </c>
+      <c r="AI1">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="AJ1">
+        <v>1.75E-3</v>
+      </c>
+      <c r="AK1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AL1">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="AM1">
+        <v>1.9000000000000002E-3</v>
+      </c>
+      <c r="AN1">
+        <v>1.9500000000000001E-3</v>
+      </c>
+      <c r="AO1">
         <v>2E-3</v>
       </c>
-      <c r="F1">
+      <c r="AP1">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="AQ1">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="AR1">
+        <v>2.15E-3</v>
+      </c>
+      <c r="AS1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="AT1">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="AU1">
+        <v>2.3000000000000004E-3</v>
+      </c>
+      <c r="AV1">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="AW1">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="AX1">
+        <v>2.4500000000000004E-3</v>
+      </c>
+      <c r="AY1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G1">
-        <v>3.0000000000000005E-3</v>
-      </c>
-      <c r="H1">
-        <v>3.5000000000000005E-3</v>
-      </c>
-      <c r="I1">
+      <c r="AZ1">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="BA1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="BB1">
+        <v>2.6500000000000004E-3</v>
+      </c>
+      <c r="BC1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="BD1">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="BE1">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="BF1">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="BG1">
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="BH1">
+        <v>2.9500000000000004E-3</v>
+      </c>
+      <c r="BI1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BJ1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+      <c r="BK1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="BL1">
+        <v>3.1500000000000005E-3</v>
+      </c>
+      <c r="BM1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="BN1">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="BO1">
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="BP1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="BQ1">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="BR1">
+        <v>3.4500000000000004E-3</v>
+      </c>
+      <c r="BS1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="BT1">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="BU1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="BV1">
+        <v>3.6500000000000005E-3</v>
+      </c>
+      <c r="BW1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="BX1">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="BY1">
+        <v>3.8000000000000004E-3</v>
+      </c>
+      <c r="BZ1">
+        <v>3.8500000000000001E-3</v>
+      </c>
+      <c r="CA1">
+        <v>3.9000000000000003E-3</v>
+      </c>
+      <c r="CB1">
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="CC1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J1">
-        <v>4.5000000000000005E-3</v>
-      </c>
-      <c r="K1">
+      <c r="CD1">
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="CE1">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="CF1">
+        <v>4.15E-3</v>
+      </c>
+      <c r="CG1">
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="CH1">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="CI1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="CJ1">
+        <v>4.3500000000000006E-3</v>
+      </c>
+      <c r="CK1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="CL1">
+        <v>4.45E-3</v>
+      </c>
+      <c r="CM1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="CN1">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="CO1">
+        <v>4.6000000000000008E-3</v>
+      </c>
+      <c r="CP1">
+        <v>4.6500000000000005E-3</v>
+      </c>
+      <c r="CQ1">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="CR1">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="CS1">
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="CT1">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="CU1">
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="CV1">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="CW1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L1">
-        <v>5.5000000000000005E-3</v>
-      </c>
-      <c r="M1">
-        <v>6.000000000000001E-3</v>
-      </c>
-      <c r="N1">
-        <v>6.5000000000000006E-3</v>
-      </c>
-      <c r="O1">
-        <v>7.000000000000001E-3</v>
-      </c>
-      <c r="P1">
+      <c r="CX1">
+        <v>5.0500000000000007E-3</v>
+      </c>
+      <c r="CY1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="CZ1">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="DA1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="DB1">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="DC1">
+        <v>5.3000000000000009E-3</v>
+      </c>
+      <c r="DD1">
+        <v>5.3500000000000006E-3</v>
+      </c>
+      <c r="DE1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="DF1">
+        <v>5.45E-3</v>
+      </c>
+      <c r="DG1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="DH1">
+        <v>5.5500000000000011E-3</v>
+      </c>
+      <c r="DI1">
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="DJ1">
+        <v>5.6500000000000005E-3</v>
+      </c>
+      <c r="DK1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="DL1">
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="DM1">
+        <v>5.8000000000000005E-3</v>
+      </c>
+      <c r="DN1">
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="DO1">
+        <v>5.9000000000000007E-3</v>
+      </c>
+      <c r="DP1">
+        <v>5.9500000000000004E-3</v>
+      </c>
+      <c r="DQ1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="DR1">
+        <v>6.0500000000000007E-3</v>
+      </c>
+      <c r="DS1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="DT1">
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="DU1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="DV1">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="DW1">
+        <v>6.3000000000000009E-3</v>
+      </c>
+      <c r="DX1">
+        <v>6.3500000000000006E-3</v>
+      </c>
+      <c r="DY1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="DZ1">
+        <v>6.45E-3</v>
+      </c>
+      <c r="EA1">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="EB1">
+        <v>6.5500000000000011E-3</v>
+      </c>
+      <c r="EC1">
+        <v>6.6000000000000008E-3</v>
+      </c>
+      <c r="ED1">
+        <v>6.6500000000000005E-3</v>
+      </c>
+      <c r="EE1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="EF1">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="EG1">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="EH1">
+        <v>6.8500000000000002E-3</v>
+      </c>
+      <c r="EI1">
+        <v>6.9000000000000008E-3</v>
+      </c>
+      <c r="EJ1">
+        <v>6.9500000000000004E-3</v>
+      </c>
+      <c r="EK1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="EL1">
+        <v>7.0500000000000007E-3</v>
+      </c>
+      <c r="EM1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="EN1">
+        <v>7.1500000000000001E-3</v>
+      </c>
+      <c r="EO1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="EP1">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="EQ1">
+        <v>7.3000000000000009E-3</v>
+      </c>
+      <c r="ER1">
+        <v>7.3500000000000006E-3</v>
+      </c>
+      <c r="ES1">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="ET1">
+        <v>7.45E-3</v>
+      </c>
+      <c r="EU1">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q1">
+      <c r="EV1">
+        <v>7.5500000000000003E-3</v>
+      </c>
+      <c r="EW1">
+        <v>7.6000000000000009E-3</v>
+      </c>
+      <c r="EX1">
+        <v>7.6500000000000005E-3</v>
+      </c>
+      <c r="EY1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="EZ1">
+        <v>7.7499999999999999E-3</v>
+      </c>
+      <c r="FA1">
+        <v>7.8000000000000005E-3</v>
+      </c>
+      <c r="FB1">
+        <v>7.8500000000000011E-3</v>
+      </c>
+      <c r="FC1">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="FD1">
+        <v>7.9500000000000005E-3</v>
+      </c>
+      <c r="FE1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R1">
+      <c r="FF1">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="FG1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="FH1">
+        <v>8.150000000000001E-3</v>
+      </c>
+      <c r="FI1">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="FJ1">
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="FK1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="FL1">
+        <v>8.3499999999999998E-3</v>
+      </c>
+      <c r="FM1">
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="FN1">
+        <v>8.4500000000000009E-3</v>
+      </c>
+      <c r="FO1">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="S1">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="T1">
-        <v>9.5000000000000015E-3</v>
-      </c>
-      <c r="U1">
+      <c r="FP1">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="FQ1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="FR1">
+        <v>8.6499999999999997E-3</v>
+      </c>
+      <c r="FS1">
+        <v>8.7000000000000011E-3</v>
+      </c>
+      <c r="FT1">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="FU1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="FV1">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="FW1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="FX1">
+        <v>8.9500000000000014E-3</v>
+      </c>
+      <c r="FY1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="FZ1">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="GA1">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="GB1">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="GC1">
+        <v>9.2000000000000016E-3</v>
+      </c>
+      <c r="GD1">
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="GE1">
+        <v>9.300000000000001E-3</v>
+      </c>
+      <c r="GF1">
+        <v>9.3499999999999989E-3</v>
+      </c>
+      <c r="GG1">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="GH1">
+        <v>9.4500000000000018E-3</v>
+      </c>
+      <c r="GI1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="GJ1">
+        <v>9.5500000000000012E-3</v>
+      </c>
+      <c r="GK1">
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="GL1">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="GM1">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="GN1">
+        <v>9.75E-3</v>
+      </c>
+      <c r="GO1">
+        <v>9.8000000000000014E-3</v>
+      </c>
+      <c r="GP1">
+        <v>9.8500000000000011E-3</v>
+      </c>
+      <c r="GQ1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="GR1">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="GS1">
         <v>0.01</v>
       </c>
-      <c r="V1">
+      <c r="GT1">
+        <v>1.005E-2</v>
+      </c>
+      <c r="GU1">
+        <v>1.0100000000000001E-2</v>
+      </c>
+      <c r="GV1">
+        <v>1.0150000000000001E-2</v>
+      </c>
+      <c r="GW1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="GX1">
+        <v>1.025E-2</v>
+      </c>
+      <c r="GY1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="GZ1">
+        <v>1.0350000000000002E-2</v>
+      </c>
+      <c r="HA1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="HB1">
+        <v>1.0450000000000001E-2</v>
+      </c>
+      <c r="HC1">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="W1">
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="X1">
-        <v>1.1500000000000002E-2</v>
-      </c>
-      <c r="Y1">
-        <v>1.2000000000000002E-2</v>
-      </c>
-      <c r="Z1">
+      <c r="HD1">
+        <v>1.055E-2</v>
+      </c>
+      <c r="HE1">
+        <v>1.0600000000000002E-2</v>
+      </c>
+      <c r="HF1">
+        <v>1.065E-2</v>
+      </c>
+      <c r="HG1">
+        <v>1.0700000000000001E-2</v>
+      </c>
+      <c r="HH1">
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="HI1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="HJ1">
+        <v>1.0850000000000002E-2</v>
+      </c>
+      <c r="HK1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="HL1">
+        <v>1.0950000000000001E-2</v>
+      </c>
+      <c r="HM1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="HN1">
+        <v>1.1050000000000001E-2</v>
+      </c>
+      <c r="HO1">
+        <v>1.1100000000000002E-2</v>
+      </c>
+      <c r="HP1">
+        <v>1.115E-2</v>
+      </c>
+      <c r="HQ1">
+        <v>1.1200000000000002E-2</v>
+      </c>
+      <c r="HR1">
+        <v>1.125E-2</v>
+      </c>
+      <c r="HS1">
+        <v>1.1300000000000001E-2</v>
+      </c>
+      <c r="HT1">
+        <v>1.1350000000000001E-2</v>
+      </c>
+      <c r="HU1">
+        <v>1.14E-2</v>
+      </c>
+      <c r="HV1">
+        <v>1.1450000000000002E-2</v>
+      </c>
+      <c r="HW1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="HX1">
+        <v>1.1550000000000001E-2</v>
+      </c>
+      <c r="HY1">
+        <v>1.1600000000000001E-2</v>
+      </c>
+      <c r="HZ1">
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="IA1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="IB1">
+        <v>1.175E-2</v>
+      </c>
+      <c r="IC1">
+        <v>1.1800000000000001E-2</v>
+      </c>
+      <c r="ID1">
+        <v>1.1850000000000001E-2</v>
+      </c>
+      <c r="IE1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="IF1">
+        <v>1.1950000000000001E-2</v>
+      </c>
+      <c r="IG1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="IH1">
+        <v>1.205E-2</v>
+      </c>
+      <c r="II1">
+        <v>1.2100000000000001E-2</v>
+      </c>
+      <c r="IJ1">
+        <v>1.2150000000000001E-2</v>
+      </c>
+      <c r="IK1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="IL1">
+        <v>1.225E-2</v>
+      </c>
+      <c r="IM1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="IN1">
+        <v>1.2350000000000002E-2</v>
+      </c>
+      <c r="IO1">
+        <v>1.24E-2</v>
+      </c>
+      <c r="IP1">
+        <v>1.2450000000000001E-2</v>
+      </c>
+      <c r="IQ1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AA1">
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="AB1">
-        <v>1.3500000000000002E-2</v>
-      </c>
-      <c r="AC1">
-        <v>1.4000000000000002E-2</v>
-      </c>
-      <c r="AD1">
-        <v>1.4500000000000002E-2</v>
-      </c>
-      <c r="AE1">
+      <c r="IR1">
+        <v>1.255E-2</v>
+      </c>
+      <c r="IS1">
+        <v>1.2600000000000002E-2</v>
+      </c>
+      <c r="IT1">
+        <v>1.265E-2</v>
+      </c>
+      <c r="IU1">
+        <v>1.2700000000000001E-2</v>
+      </c>
+      <c r="IV1">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="IW1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="IX1">
+        <v>1.2850000000000002E-2</v>
+      </c>
+      <c r="IY1">
+        <v>1.29E-2</v>
+      </c>
+      <c r="IZ1">
+        <v>1.2950000000000001E-2</v>
+      </c>
+      <c r="JA1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="JB1">
+        <v>1.3050000000000001E-2</v>
+      </c>
+      <c r="JC1">
+        <v>1.3100000000000002E-2</v>
+      </c>
+      <c r="JD1">
+        <v>1.315E-2</v>
+      </c>
+      <c r="JE1">
+        <v>1.3200000000000002E-2</v>
+      </c>
+      <c r="JF1">
+        <v>1.325E-2</v>
+      </c>
+      <c r="JG1">
+        <v>1.3300000000000001E-2</v>
+      </c>
+      <c r="JH1">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="JI1">
+        <v>1.34E-2</v>
+      </c>
+      <c r="JJ1">
+        <v>1.3450000000000002E-2</v>
+      </c>
+      <c r="JK1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="JL1">
+        <v>1.3550000000000001E-2</v>
+      </c>
+      <c r="JM1">
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="JN1">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="JO1">
+        <v>1.37E-2</v>
+      </c>
+      <c r="JP1">
+        <v>1.375E-2</v>
+      </c>
+      <c r="JQ1">
+        <v>1.3800000000000002E-2</v>
+      </c>
+      <c r="JR1">
+        <v>1.3850000000000001E-2</v>
+      </c>
+      <c r="JS1">
+        <v>1.3900000000000001E-2</v>
+      </c>
+      <c r="JT1">
+        <v>1.3950000000000001E-2</v>
+      </c>
+      <c r="JU1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="JV1">
+        <v>1.405E-2</v>
+      </c>
+      <c r="JW1">
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="JX1">
+        <v>1.4150000000000001E-2</v>
+      </c>
+      <c r="JY1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="JZ1">
+        <v>1.4250000000000001E-2</v>
+      </c>
+      <c r="KA1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="KB1">
+        <v>1.4350000000000002E-2</v>
+      </c>
+      <c r="KC1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="KD1">
+        <v>1.4450000000000001E-2</v>
+      </c>
+      <c r="KE1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="KF1">
+        <v>1.455E-2</v>
+      </c>
+      <c r="KG1">
+        <v>1.4600000000000002E-2</v>
+      </c>
+      <c r="KH1">
+        <v>1.465E-2</v>
+      </c>
+      <c r="KI1">
+        <v>1.4700000000000001E-2</v>
+      </c>
+      <c r="KJ1">
+        <v>1.4749999999999999E-2</v>
+      </c>
+      <c r="KK1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="KL1">
+        <v>1.4850000000000002E-2</v>
+      </c>
+      <c r="KM1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="KN1">
+        <v>1.4950000000000001E-2</v>
+      </c>
+      <c r="KO1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AF1">
+      <c r="KP1">
+        <v>1.5050000000000001E-2</v>
+      </c>
+      <c r="KQ1">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="KR1">
+        <v>1.515E-2</v>
+      </c>
+      <c r="KS1">
+        <v>1.5200000000000002E-2</v>
+      </c>
+      <c r="KT1">
+        <v>1.525E-2</v>
+      </c>
+      <c r="KU1">
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="KV1">
+        <v>1.5350000000000001E-2</v>
+      </c>
+      <c r="KW1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="KX1">
+        <v>1.5450000000000002E-2</v>
+      </c>
+      <c r="KY1">
         <v>1.55E-2</v>
       </c>
-      <c r="AG1">
+      <c r="KZ1">
+        <v>1.5550000000000001E-2</v>
+      </c>
+      <c r="LA1">
+        <v>1.5600000000000001E-2</v>
+      </c>
+      <c r="LB1">
+        <v>1.5650000000000001E-2</v>
+      </c>
+      <c r="LC1">
+        <v>1.5700000000000002E-2</v>
+      </c>
+      <c r="LD1">
+        <v>1.575E-2</v>
+      </c>
+      <c r="LE1">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="LF1">
+        <v>1.5850000000000003E-2</v>
+      </c>
+      <c r="LG1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="LH1">
+        <v>1.5950000000000002E-2</v>
+      </c>
+      <c r="LI1">
         <v>1.6E-2</v>
       </c>
-      <c r="AH1">
+      <c r="LJ1">
+        <v>1.6050000000000002E-2</v>
+      </c>
+      <c r="LK1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="LL1">
+        <v>1.6150000000000001E-2</v>
+      </c>
+      <c r="LM1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="LN1">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="LO1">
+        <v>1.6300000000000002E-2</v>
+      </c>
+      <c r="LP1">
+        <v>1.635E-2</v>
+      </c>
+      <c r="LQ1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="LR1">
+        <v>1.6449999999999999E-2</v>
+      </c>
+      <c r="LS1">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="AI1">
+      <c r="LT1">
+        <v>1.6550000000000002E-2</v>
+      </c>
+      <c r="LU1">
+        <v>1.66E-2</v>
+      </c>
+      <c r="LV1">
+        <v>1.6650000000000002E-2</v>
+      </c>
+      <c r="LW1">
+        <v>1.67E-2</v>
+      </c>
+      <c r="LX1">
+        <v>1.6750000000000001E-2</v>
+      </c>
+      <c r="LY1">
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="LZ1">
+        <v>1.685E-2</v>
+      </c>
+      <c r="MA1">
+        <v>1.6900000000000002E-2</v>
+      </c>
+      <c r="MB1">
+        <v>1.695E-2</v>
+      </c>
+      <c r="MC1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AJ1">
+      <c r="MD1">
+        <v>1.7049999999999999E-2</v>
+      </c>
+      <c r="ME1">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="MF1">
+        <v>1.7150000000000002E-2</v>
+      </c>
+      <c r="MG1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="MH1">
+        <v>1.7250000000000001E-2</v>
+      </c>
+      <c r="MI1">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="MJ1">
+        <v>1.7350000000000001E-2</v>
+      </c>
+      <c r="MK1">
+        <v>1.7400000000000002E-2</v>
+      </c>
+      <c r="ML1">
+        <v>1.745E-2</v>
+      </c>
+      <c r="MM1">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AK1">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="AL1">
-        <v>1.8500000000000003E-2</v>
-      </c>
-      <c r="AM1">
-        <v>1.9000000000000003E-2</v>
-      </c>
-      <c r="AN1">
-        <v>1.9500000000000003E-2</v>
-      </c>
-      <c r="AO1">
+      <c r="MN1">
+        <v>1.755E-2</v>
+      </c>
+      <c r="MO1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="MP1">
+        <v>1.7650000000000002E-2</v>
+      </c>
+      <c r="MQ1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="MR1">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="MS1">
+        <v>1.78E-2</v>
+      </c>
+      <c r="MT1">
+        <v>1.7850000000000001E-2</v>
+      </c>
+      <c r="MU1">
+        <v>1.7900000000000003E-2</v>
+      </c>
+      <c r="MV1">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="MW1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="MX1">
+        <v>1.805E-2</v>
+      </c>
+      <c r="MY1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="MZ1">
+        <v>1.8150000000000003E-2</v>
+      </c>
+      <c r="NA1">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="NB1">
+        <v>1.8249999999999999E-2</v>
+      </c>
+      <c r="NC1">
+        <v>1.83E-2</v>
+      </c>
+      <c r="ND1">
+        <v>1.8350000000000002E-2</v>
+      </c>
+      <c r="NE1">
+        <v>1.8400000000000003E-2</v>
+      </c>
+      <c r="NF1">
+        <v>1.8449999999999998E-2</v>
+      </c>
+      <c r="NG1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="NH1">
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="NI1">
+        <v>1.8600000000000002E-2</v>
+      </c>
+      <c r="NJ1">
+        <v>1.8650000000000003E-2</v>
+      </c>
+      <c r="NK1">
+        <v>1.8699999999999998E-2</v>
+      </c>
+      <c r="NL1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="NM1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="NN1">
+        <v>1.8850000000000002E-2</v>
+      </c>
+      <c r="NO1">
+        <v>1.8900000000000004E-2</v>
+      </c>
+      <c r="NP1">
+        <v>1.8949999999999998E-2</v>
+      </c>
+      <c r="NQ1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="NR1">
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="NS1">
+        <v>1.9100000000000002E-2</v>
+      </c>
+      <c r="NT1">
+        <v>1.9150000000000004E-2</v>
+      </c>
+      <c r="NU1">
+        <v>1.9200000000000002E-2</v>
+      </c>
+      <c r="NV1">
+        <v>1.925E-2</v>
+      </c>
+      <c r="NW1">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="NX1">
+        <v>1.9350000000000003E-2</v>
+      </c>
+      <c r="NY1">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="NZ1">
+        <v>1.9450000000000002E-2</v>
+      </c>
+      <c r="OA1">
+        <v>1.95E-2</v>
+      </c>
+      <c r="OB1">
+        <v>1.9550000000000001E-2</v>
+      </c>
+      <c r="OC1">
+        <v>1.9600000000000003E-2</v>
+      </c>
+      <c r="OD1">
+        <v>1.9650000000000001E-2</v>
+      </c>
+      <c r="OE1">
+        <v>1.9700000000000002E-2</v>
+      </c>
+      <c r="OF1">
+        <v>1.975E-2</v>
+      </c>
+      <c r="OG1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="OH1">
+        <v>1.9850000000000003E-2</v>
+      </c>
+      <c r="OI1">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="OJ1">
+        <v>1.9950000000000002E-2</v>
+      </c>
+      <c r="OK1">
         <v>0.02</v>
       </c>
-      <c r="AP1">
-        <v>2.0500000000000004E-2</v>
-      </c>
-      <c r="AQ1">
+      <c r="OL1">
+        <v>2.0050000000000002E-2</v>
+      </c>
+      <c r="OM1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="ON1">
+        <v>2.0150000000000001E-2</v>
+      </c>
+      <c r="OO1">
+        <v>2.0200000000000003E-2</v>
+      </c>
+      <c r="OP1">
+        <v>2.0250000000000001E-2</v>
+      </c>
+      <c r="OQ1">
+        <v>2.0300000000000002E-2</v>
+      </c>
+      <c r="OR1">
+        <v>2.035E-2</v>
+      </c>
+      <c r="OS1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="OT1">
+        <v>2.0450000000000003E-2</v>
+      </c>
+      <c r="OU1">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="OV1">
+        <v>2.0550000000000002E-2</v>
+      </c>
+      <c r="OW1">
+        <v>2.06E-2</v>
+      </c>
+      <c r="OX1">
+        <v>2.0650000000000002E-2</v>
+      </c>
+      <c r="OY1">
+        <v>2.0700000000000003E-2</v>
+      </c>
+      <c r="OZ1">
+        <v>2.0750000000000001E-2</v>
+      </c>
+      <c r="PA1">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="PB1">
+        <v>2.085E-2</v>
+      </c>
+      <c r="PC1">
+        <v>2.0900000000000002E-2</v>
+      </c>
+      <c r="PD1">
+        <v>2.0950000000000003E-2</v>
+      </c>
+      <c r="PE1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AR1">
+      <c r="PF1">
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="PG1">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="PH1">
+        <v>2.1150000000000002E-2</v>
+      </c>
+      <c r="PI1">
+        <v>2.1200000000000004E-2</v>
+      </c>
+      <c r="PJ1">
+        <v>2.1250000000000002E-2</v>
+      </c>
+      <c r="PK1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="PL1">
+        <v>2.1350000000000001E-2</v>
+      </c>
+      <c r="PM1">
+        <v>2.1400000000000002E-2</v>
+      </c>
+      <c r="PN1">
+        <v>2.1450000000000004E-2</v>
+      </c>
+      <c r="PO1">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="AS1">
-        <v>2.2000000000000002E-2</v>
-      </c>
-      <c r="AT1">
+      <c r="PP1">
+        <v>2.155E-2</v>
+      </c>
+      <c r="PQ1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="PR1">
+        <v>2.1650000000000003E-2</v>
+      </c>
+      <c r="PS1">
+        <v>2.1700000000000004E-2</v>
+      </c>
+      <c r="PT1">
+        <v>2.1749999999999999E-2</v>
+      </c>
+      <c r="PU1">
+        <v>2.18E-2</v>
+      </c>
+      <c r="PV1">
+        <v>2.1850000000000001E-2</v>
+      </c>
+      <c r="PW1">
+        <v>2.1900000000000003E-2</v>
+      </c>
+      <c r="PX1">
+        <v>2.1950000000000004E-2</v>
+      </c>
+      <c r="PY1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="PZ1">
+        <v>2.205E-2</v>
+      </c>
+      <c r="QA1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="QB1">
+        <v>2.2150000000000003E-2</v>
+      </c>
+      <c r="QC1">
+        <v>2.2200000000000004E-2</v>
+      </c>
+      <c r="QD1">
+        <v>2.2249999999999999E-2</v>
+      </c>
+      <c r="QE1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="QF1">
+        <v>2.2350000000000002E-2</v>
+      </c>
+      <c r="QG1">
+        <v>2.2400000000000003E-2</v>
+      </c>
+      <c r="QH1">
+        <v>2.2450000000000001E-2</v>
+      </c>
+      <c r="QI1">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AU1">
-        <v>2.3000000000000003E-2</v>
-      </c>
-      <c r="AV1">
+      <c r="QJ1">
+        <v>2.2550000000000001E-2</v>
+      </c>
+      <c r="QK1">
+        <v>2.2600000000000002E-2</v>
+      </c>
+      <c r="QL1">
+        <v>2.2650000000000003E-2</v>
+      </c>
+      <c r="QM1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="QN1">
+        <v>2.2749999999999999E-2</v>
+      </c>
+      <c r="QO1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="QP1">
+        <v>2.2850000000000002E-2</v>
+      </c>
+      <c r="QQ1">
+        <v>2.2900000000000004E-2</v>
+      </c>
+      <c r="QR1">
+        <v>2.2950000000000002E-2</v>
+      </c>
+      <c r="QS1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="QT1">
+        <v>2.3050000000000001E-2</v>
+      </c>
+      <c r="QU1">
+        <v>2.3100000000000002E-2</v>
+      </c>
+      <c r="QV1">
+        <v>2.315E-2</v>
+      </c>
+      <c r="QW1">
+        <v>2.3200000000000002E-2</v>
+      </c>
+      <c r="QX1">
+        <v>2.325E-2</v>
+      </c>
+      <c r="QY1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="QZ1">
+        <v>2.3350000000000003E-2</v>
+      </c>
+      <c r="RA1">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="RB1">
+        <v>2.3450000000000002E-2</v>
+      </c>
+      <c r="RC1">
         <v>2.35E-2</v>
       </c>
-      <c r="AW1">
-        <v>2.4000000000000004E-2</v>
-      </c>
-      <c r="AX1">
+      <c r="RD1">
+        <v>2.3550000000000001E-2</v>
+      </c>
+      <c r="RE1">
+        <v>2.3600000000000003E-2</v>
+      </c>
+      <c r="RF1">
+        <v>2.3650000000000001E-2</v>
+      </c>
+      <c r="RG1">
+        <v>2.3700000000000002E-2</v>
+      </c>
+      <c r="RH1">
+        <v>2.375E-2</v>
+      </c>
+      <c r="RI1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="RJ1">
+        <v>2.3850000000000003E-2</v>
+      </c>
+      <c r="RK1">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="RL1">
+        <v>2.3950000000000003E-2</v>
+      </c>
+      <c r="RM1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="RN1">
+        <v>2.4050000000000002E-2</v>
+      </c>
+      <c r="RO1">
+        <v>2.41E-2</v>
+      </c>
+      <c r="RP1">
+        <v>2.4150000000000001E-2</v>
+      </c>
+      <c r="RQ1">
+        <v>2.4200000000000003E-2</v>
+      </c>
+      <c r="RR1">
+        <v>2.4250000000000001E-2</v>
+      </c>
+      <c r="RS1">
+        <v>2.4300000000000002E-2</v>
+      </c>
+      <c r="RT1">
+        <v>2.435E-2</v>
+      </c>
+      <c r="RU1">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="RV1">
+        <v>2.4450000000000003E-2</v>
+      </c>
+      <c r="RW1">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="AY1">
+      <c r="RX1">
+        <v>2.4550000000000002E-2</v>
+      </c>
+      <c r="RY1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="RZ1">
+        <v>2.4650000000000002E-2</v>
+      </c>
+      <c r="SA1">
+        <v>2.4700000000000003E-2</v>
+      </c>
+      <c r="SB1">
+        <v>2.4750000000000001E-2</v>
+      </c>
+      <c r="SC1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="SD1">
+        <v>2.4850000000000001E-2</v>
+      </c>
+      <c r="SE1">
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="SF1">
+        <v>2.4950000000000003E-2</v>
+      </c>
+      <c r="SG1">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AZ1">
-        <v>2.5500000000000002E-2</v>
-      </c>
-      <c r="BA1">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="BB1">
-        <v>2.6500000000000003E-2</v>
-      </c>
-      <c r="BC1">
-        <v>2.7000000000000003E-2</v>
-      </c>
-      <c r="BD1">
-        <v>2.75E-2</v>
-      </c>
-      <c r="BE1">
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="BF1">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="BG1">
-        <v>2.9000000000000005E-2</v>
-      </c>
-      <c r="BH1">
-        <v>2.9500000000000002E-2</v>
-      </c>
-      <c r="BI1">
-        <v>0.03</v>
-      </c>
-      <c r="BJ1">
-        <v>3.0500000000000003E-2</v>
-      </c>
-      <c r="BK1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="BL1">
-        <v>3.15E-2</v>
-      </c>
-      <c r="BM1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="BN1">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="BO1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="BP1">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="BQ1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="BR1">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="BS1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="BT1">
-        <v>3.5500000000000004E-2</v>
-      </c>
-      <c r="BU1">
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="BV1">
-        <v>3.6500000000000005E-2</v>
-      </c>
-      <c r="BW1">
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="BX1">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="BY1">
-        <v>3.8000000000000006E-2</v>
-      </c>
-      <c r="BZ1">
-        <v>3.85E-2</v>
-      </c>
-      <c r="CA1">
-        <v>3.9000000000000007E-2</v>
-      </c>
-      <c r="CB1">
-        <v>3.95E-2</v>
-      </c>
-      <c r="CC1">
-        <v>0.04</v>
-      </c>
-      <c r="CD1">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="CE1">
-        <v>4.1000000000000009E-2</v>
-      </c>
-      <c r="CF1">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="CG1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="CH1">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="CI1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="CJ1">
-        <v>4.3500000000000004E-2</v>
-      </c>
-      <c r="CK1">
-        <v>4.4000000000000004E-2</v>
-      </c>
-      <c r="CL1">
-        <v>4.4500000000000005E-2</v>
-      </c>
-      <c r="CM1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="CN1">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="CO1">
-        <v>4.6000000000000006E-2</v>
-      </c>
-      <c r="CP1">
-        <v>4.6500000000000007E-2</v>
-      </c>
-      <c r="CQ1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="CR1">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="CS1">
-        <v>4.8000000000000008E-2</v>
-      </c>
-      <c r="CT1">
-        <v>4.8500000000000008E-2</v>
-      </c>
-      <c r="CU1">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="CV1">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="CW1">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
